--- a/biology/Virologie/Maladie_noire/Maladie_noire.xlsx
+++ b/biology/Virologie/Maladie_noire/Maladie_noire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie noire ou  paralysie chronique des abeilles, encore appelée « mal de mai » ou  « mal des forêts » par les apiculteurs, est une maladie virale des abeilles (mais qui peut toucher d'autres insectes, dont les fourmis) décrite dans de nombreux pays, et induite par un virus qui infecte notamment les cellules du ventricule et du système nerveux de l'abeille. 
-Le virus responsable a été identifié et nommé virus de la paralysie chronique (CBPV : Chronic Bee Paralysis Virus) par Leslie Bailey en 1968, mais les anglo-saxons nomment aussi la maladie May sickness, ou C.P.V. (Chronical Paralysis Virus). Le qualificatif « chronique » a été donné par opposition à la paralysie « aiguë » induite par un autre virus l’Acute Bee Paralysis Virus (ABPV) qui, en condition expérimentale (à la suite d'une inoculation volontaire), produit une paralysie des abeilles en 2 à 5 jours alors qu’il en faut 7 au CBPV[1]. Selon les experts de l’AFSSA, il contribue de manière significative aux mortalités d’abeilles[2]
+Le virus responsable a été identifié et nommé virus de la paralysie chronique (CBPV : Chronic Bee Paralysis Virus) par Leslie Bailey en 1968, mais les anglo-saxons nomment aussi la maladie May sickness, ou C.P.V. (Chronical Paralysis Virus). Le qualificatif « chronique » a été donné par opposition à la paralysie « aiguë » induite par un autre virus l’Acute Bee Paralysis Virus (ABPV) qui, en condition expérimentale (à la suite d'une inoculation volontaire), produit une paralysie des abeilles en 2 à 5 jours alors qu’il en faut 7 au CBPV. Selon les experts de l’AFSSA, il contribue de manière significative aux mortalités d’abeilles
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’origine et l’histoire ancienne de la maladie sont inconnues. 
 Une contagion expérimentale a été faite pour la première fois en 1945 par Burnside. 
@@ -548,7 +562,9 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils peuvent être confondus avec ceux de certaines intoxications par des produits neurotoxiques
 Perte de pilosité, une coloration noire et brillante chez certaines abeilles (d’où le nom de « maladie noire » et d’  « abeille noire » (à ne pas confondre avec le nom, identique, d’une variété d’abeille) ou de « petite noire », ( "petites noires" car les abeilles glabres semblent plus petites et amaigries pour celui qui les observe) ;
@@ -585,9 +601,11 @@
           <t>Clinique de la maladie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des corps d’inclusion ont été trouvés dans les cellules de l’épithélium du tube digestif ainsi que dans le système nerveux d’abeilles malades ce qui a fait dire à Lee et Furgala, en 1965 et Giauffret, en 1967 que le virus se répliquait probablement dans des cellules de ces organes. Mais une charge virale importante est aussi trouvée dans l’hémolymphe d’abeilles infectées[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des corps d’inclusion ont été trouvés dans les cellules de l’épithélium du tube digestif ainsi que dans le système nerveux d’abeilles malades ce qui a fait dire à Lee et Furgala, en 1965 et Giauffret, en 1967 que le virus se répliquait probablement dans des cellules de ces organes. Mais une charge virale importante est aussi trouvée dans l’hémolymphe d’abeilles infectées.
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Facteurs favorisants ?</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La maladie semble se développer plus souvent dans les bois chez les abeilles exploitant les miellées de miellat.
 La promiscuité induite par des ruches très peuplées et/ou une mauvaise météo semble être un autre facteur favorisant.
@@ -649,7 +669,9 @@
           <t>Génomique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">On manque encore de données sur ce virus, mais la biologie moléculaire (P.C.R.) a amélioré sa connaissance et mis en évidence une forme latente asymptomatique. Une carence alimentaire, une baisse de l’immunité induite par l’exposition aux pesticides ou par des facteurs mal compris  pourraient faciliter l’infection par ce virus.
 </t>
@@ -680,7 +702,9 @@
           <t>Fréquence</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est mal connue chez les apidés sauvages, mais fréquente chez l’abeille domestique : Le virus est souvent trouvé chez les abeilles mortes (plus de 70 % des prélèvements diagnostiqués positifs dans les années 1960 en Angleterre). 
 En 3 ans (d’août 2000 à  août 2003) , la maladie a été diagnostiquée et confirmée par analyses virologiques 157 fois pour  359 cas de mortalités d’abeilles. La plupart des échantillons positifs venaient de ruchers touchés par des affaiblissements de colonies et affectés par  des symptômes de tremblements et/ou d’inactivité au pas de vol.
@@ -712,7 +736,9 @@
           <t>Impacts</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, les impacts étaient  réputés faibles en termes de mortalité (qui intervient ponctuellement à la  fin du printemps et en début d’été selon Giauffret (1966). C’est néanmoins un des facteurs qui ont été évoqués pour tenter d’expliquer les mortalités massives d’abeilles enregistrées à la fin du XXe siècle et depuis, notamment parce que dans les cas de syndromes de paralysie toute une ruche peut être décimée, mais on retrouve les abeilles mortes ou agonisantes sur place et à proximité..
 </t>
@@ -743,10 +769,12 @@
           <t>Soins</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Pas de traitement médicamenteux connu.
-L'apiculteur cherche habituellement à éviter que du miellat soit disponible pour les abeilles lors de l’hivernage notamment. Certains promeuvent une transhumance dans d’autres régions ou un renouvellement des reines[4].
+L'apiculteur cherche habituellement à éviter que du miellat soit disponible pour les abeilles lors de l’hivernage notamment. Certains promeuvent une transhumance dans d’autres régions ou un renouvellement des reines.
 </t>
         </is>
       </c>
@@ -775,7 +803,9 @@
           <t>Recherche</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, L’AFSSA (à Sophia Antipolis, Unité Pathologie de l’Abeille) travaille sur ce virus avec  l’aide de fonds européens du FEOGA, pour notamment séquencer ce virus, affiner les outils de diagnostics différentiant une simple présence virale de la véritable maladie (seuil viral)
 </t>
